--- a/20.開発/60.API/10.API一覧/API一覧.xlsx
+++ b/20.開発/60.API/10.API一覧/API一覧.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/60.API/10.API一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternal\documents\20.開発\60.API\10.API一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D230CB41-5CC2-43D9-8B3E-A8F8864E13EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
     <sheet name="API一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API一覧!$B$4:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API一覧!$B$4:$I$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$F$26</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
     <definedName name="改訂日">変更履歴!$D$5:$D$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>API一覧</t>
     <rPh sb="3" eb="5">
@@ -264,9 +265,6 @@
     <t>hiima/api/internal/v1/talkdetail</t>
   </si>
   <si>
-    <t>hiima/api/internal/v1/talkgenre</t>
-  </si>
-  <si>
     <t>hiima/api/internal/v1/commentlist</t>
   </si>
   <si>
@@ -385,26 +383,85 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ref001</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ref002</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ref003</t>
+    <t>検索結果画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ref005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果を取得する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/search</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/talkgenre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ref005 検索結果取得 追加</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -580,6 +637,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -592,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,28 +695,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -914,173 +978,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="7.7109375" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="68.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="7.7109375" style="12"/>
+    <col min="1" max="1" width="1.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="7.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="13" t="s">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="16">
         <v>43408</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16">
+        <v>43434</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5">
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5">
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="16"/>
@@ -1089,37 +1161,37 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="2.85546875" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.85546875" style="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="8.1" customHeight="1"/>
+    <row r="2" spans="2:9" ht="22.5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1207,7 @@
       <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1145,13 +1217,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9">
       <c r="B5" s="5">
         <f>ROW()-ROW($B$4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
@@ -1165,35 +1237,42 @@
       <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="10">
+        <f t="shared" ref="B6" si="0">ROW()-ROW($B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1212,30 +1291,36 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9">
       <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9">
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -1247,55 +1332,67 @@
         <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9">
       <c r="B10" s="10">
         <v>3</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9">
       <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>21</v>
@@ -1307,90 +1404,112 @@
         <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>37</v>
+      <c r="G15" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="8"/>
     </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="8">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B4:I15"/>
+  <autoFilter ref="B4:I16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20.開発/60.API/10.API一覧/API一覧.xlsx
+++ b/20.開発/60.API/10.API一覧/API一覧.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternal\documents\20.開発\60.API\10.API一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/60.API/10.API一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D230CB41-5CC2-43D9-8B3E-A8F8864E13EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
     <sheet name="API一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API一覧!$B$4:$I$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API一覧!$B$4:$I$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$F$26</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
     <definedName name="改訂日">変更履歴!$D$5:$D$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>API一覧</t>
     <rPh sb="3" eb="5">
@@ -115,26 +114,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トークテーマ詳細取得</t>
-    <rPh sb="6" eb="8">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トークテーマの詳細を取得する</t>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトクスル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トークテーマジャンル一覧取得</t>
     <rPh sb="10" eb="12">
       <t>イチラン</t>
@@ -169,20 +148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トークテーマを投稿する</t>
-    <rPh sb="7" eb="9">
-      <t>トウコウスル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トークテーマを評価する</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トップ画面</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -242,27 +207,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ランダム画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>トークテーマのコメントを取得する</t>
-    <rPh sb="12" eb="14">
-      <t>シュトクスル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>hiima/api/internal/v1/talklist</t>
-  </si>
-  <si>
-    <t>hiima/api/internal/v1/talkdetail</t>
   </si>
   <si>
     <t>hiima/api/internal/v1/commentlist</t>
@@ -367,10 +318,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ref004</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Upd001</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -413,19 +360,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>検索結果を取得する</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>hiima/api/internal/v1/search</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -450,6 +384,151 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果を取得する。全文検索や検索条件による検索を可能とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ゼンブンケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサクヲ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カノウトスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマを評価する。トークテーマ詳細を表示した際にトランザクションIDを発行し、１回のトークで1評価となるようにする。
+また、トークテーマ詳細画面を表示中は評価の変更を可能とする。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイニ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハッコウシ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガメンヲ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>チュウハ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヘンコウヲ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カノウトスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TODO:コメントの削除、編集機能の提供が必要</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ヘンシュウキノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ref002 削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマを投稿する。 レスポンスでトークテーマの新規登録に成功したかを返却する。</t>
+    <rPh sb="7" eb="9">
+      <t>トウコウスル</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンキャクスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマに紐づくトークテーマのコメントを取得する。</t>
+    <rPh sb="7" eb="8">
+      <t>ヒモヅク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトクスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマのジャンル一覧を取得する。</t>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトクスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマの一覧を取得する。</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトクスル</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -457,11 +536,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -535,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -575,17 +654,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -652,6 +720,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -662,19 +761,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,15 +784,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -978,185 +1120,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="7.7109375" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="68.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="1.44140625" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="7.6640625" style="12"/>
+    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="7.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>43408</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="16">
-        <v>43408</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="16">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8">
         <v>43434</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="17"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="17"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43449</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1166,350 +1316,306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="19.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="2.85546875" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.88671875" style="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="8.1" customHeight="1"/>
-    <row r="2" spans="2:9" ht="22.5">
+    <row r="1" spans="2:9" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="23" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="11">
         <f>ROW()-ROW($B$4)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="10">
+      <c r="E5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
         <f t="shared" ref="B6" si="0">ROW()-ROW($B$4)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="19">
+        <v>3</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:9" ht="40" x14ac:dyDescent="0.35">
+      <c r="B11" s="21">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" ht="40" x14ac:dyDescent="0.35">
+      <c r="B12" s="19">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+      <c r="B13" s="21">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="H13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" ht="40" x14ac:dyDescent="0.35">
+      <c r="B14" s="21">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="8">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="8">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="G14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="8">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="8">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="8">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:I16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B4:I15"/>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20.開発/60.API/10.API一覧/API一覧.xlsx
+++ b/20.開発/60.API/10.API一覧/API一覧.xlsx
@@ -16,7 +16,7 @@
     <sheet name="API一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API一覧!$B$4:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API一覧!$B$4:$I$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$F$26</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
     <definedName name="改訂日">変更履歴!$D$5:$D$25</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>API一覧</t>
     <rPh sb="3" eb="5">
@@ -124,16 +124,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トークテーマのジャンル一覧を取得する</t>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトクスル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トークテーマ投稿</t>
     <rPh sb="6" eb="8">
       <t>トウコウ</t>
@@ -200,13 +190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ランダム画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメｎ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -361,10 +344,6 @@
   </si>
   <si>
     <t>hiima/api/internal/v1/search</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>hiima/api/internal/v1/talkgenre</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -513,22 +492,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トークテーマのジャンル一覧を取得する。</t>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトクスル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トークテーマの一覧を取得する。</t>
     <rPh sb="7" eb="9">
       <t>イチラン</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>シュトクスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/genre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマカテゴリ一覧取得</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマのカテゴリ一覧を取得する。カテフゴリのインクリメンタルサーチに使用する。</t>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトクスル</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウスル</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -614,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -740,17 +736,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -761,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,15 +791,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -833,11 +812,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1141,63 +1123,63 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8">
         <v>43408</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8">
         <v>43434</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8">
         <v>43449</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1317,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1373,22 +1355,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>60</v>
+      <c r="E5" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>15</v>
+      <c r="H5" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1398,46 +1380,46 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>19</v>
+        <v>57</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -1446,173 +1428,150 @@
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="19">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" ht="40" x14ac:dyDescent="0.35">
+      <c r="B10" s="19">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" ht="40" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="17">
-        <v>2</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="E11" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="G11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+      <c r="B12" s="19">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:9" ht="40" x14ac:dyDescent="0.35">
-      <c r="B11" s="21">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="2:9" ht="40" x14ac:dyDescent="0.35">
-      <c r="B12" s="19">
-        <v>5</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="H12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="40" x14ac:dyDescent="0.35">
+      <c r="B13" s="19">
+        <v>7</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="D13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="2:9" ht="60" x14ac:dyDescent="0.35">
-      <c r="B13" s="21">
-        <v>6</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="2:9" ht="40" x14ac:dyDescent="0.35">
-      <c r="B14" s="21">
-        <v>7</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>54</v>
+      <c r="H13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:I15"/>
+  <autoFilter ref="B4:I14"/>
+  <mergeCells count="1">
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">

--- a/20.開発/60.API/10.API一覧/API一覧.xlsx
+++ b/20.開発/60.API/10.API一覧/API一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/60.API/10.API一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternal\documents\20.開発\60.API\10.API一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D518C-6656-4DD0-886D-0D277E9AEFA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="改訂日">変更履歴!$D$5:$D$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>API一覧</t>
     <rPh sb="3" eb="5">
@@ -502,10 +503,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>hiima/api/internal/v1/genre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トークテーマカテゴリ一覧取得</t>
     <rPh sb="10" eb="12">
       <t>イチラン</t>
@@ -525,6 +522,38 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>シヨウスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/categoryList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>hiima/api/internal/v1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>categoryList</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.0.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ref002_トークテーマカテゴリ一覧取得
+・エンドポイントを変更</t>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -532,11 +561,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -589,6 +618,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -757,18 +793,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -788,9 +812,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -820,12 +841,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1102,31 +1138,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E25"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="7.7109375" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="68.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="7.7109375" style="4"/>
+    <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="7.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1140,190 +1191,198 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="25">
         <v>43408</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="25">
         <v>43434</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="25">
         <v>43449</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
+    <row r="8" spans="2:5" ht="37.5">
+      <c r="B8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="25">
+        <v>43467</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="2.85546875" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.85546875" style="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="8.1" customHeight="1"/>
+    <row r="2" spans="2:9" ht="22.5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1398,7 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1349,232 +1408,232 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="11">
+    <row r="5" spans="2:9">
+      <c r="B5" s="7">
         <f>ROW()-ROW($B$4)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="9">
         <f t="shared" ref="B6" si="0">ROW()-ROW($B$4)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11">
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="14" t="s">
+      <c r="G9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" ht="39">
+      <c r="B10" s="14">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="19">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" ht="39">
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" ht="97.5">
+      <c r="B12" s="14">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="2:9" ht="40" x14ac:dyDescent="0.35">
-      <c r="B10" s="19">
-        <v>4</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="2:9" ht="40" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
-        <v>5</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" ht="39">
+      <c r="B13" s="14">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.35">
-      <c r="B12" s="19">
-        <v>6</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="2:9" ht="40" x14ac:dyDescent="0.35">
-      <c r="B13" s="19">
-        <v>7</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="20" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:I14"/>
+  <autoFilter ref="B4:I14" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20.開発/60.API/10.API一覧/API一覧.xlsx
+++ b/20.開発/60.API/10.API一覧/API一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternal\documents\20.開発\60.API\10.API一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D518C-6656-4DD0-886D-0D277E9AEFA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1FE78-E4EB-4CAF-9EB6-522F03376880}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="改訂日">変更履歴!$D$5:$D$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>API一覧</t>
     <rPh sb="3" eb="5">
@@ -200,18 +200,7 @@
     <t>hiima/api/internal/v1/talklist</t>
   </si>
   <si>
-    <t>hiima/api/internal/v1/commentlist</t>
-  </si>
-  <si>
-    <t>hiima/api/internal/v1/posttalk</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>hiima/api/internal/v1/evaluate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>hiima/api/internal/v1/postcomment</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -324,10 +313,6 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ref005</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -555,6 +540,26 @@
     <rPh sb="31" eb="33">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ref004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/talkList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/commentList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/postTalk</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/postComment</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -836,26 +841,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1149,10 +1154,10 @@
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="68.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="25" customWidth="1"/>
     <col min="6" max="6" width="1.44140625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="7.6640625" style="4"/>
   </cols>
@@ -1165,7 +1170,7 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1179,175 +1184,175 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D5" s="23">
+        <v>43408</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="25">
-        <v>43408</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="23">
+        <v>43434</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="25">
-        <v>43434</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="23">
         <v>43449</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>36</v>
+      <c r="E7" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="37.5">
-      <c r="B8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="B8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="23">
         <v>43467</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>36</v>
+      <c r="E8" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="26"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1414,19 +1419,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>14</v>
@@ -1439,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>9</v>
@@ -1463,19 +1468,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>18</v>
@@ -1487,17 +1492,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>17</v>
@@ -1509,19 +1514,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>19</v>
@@ -1533,22 +1538,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -1557,19 +1562,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>20</v>
@@ -1581,19 +1586,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>19</v>
@@ -1605,25 +1610,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1632,11 +1637,12 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>